--- a/vba/vba.xlsx
+++ b/vba/vba.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\vba\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\learn python\learn_python\vba\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDF86EB6-4E26-4CB9-B181-E3AFF6E0D55D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9F56850-10BB-4A8B-BA20-C11F6B7E3EB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1860" yWindow="1860" windowWidth="15300" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>hello</t>
   </si>
@@ -43,19 +43,28 @@
   </si>
   <si>
     <t>ice</t>
+  </si>
+  <si>
+    <t>welcome home</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -439,7 +448,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J8" sqref="J8"/>
@@ -498,6 +507,11 @@
       </c>
       <c r="B7">
         <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/vba/vba.xlsx
+++ b/vba/vba.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\learn python\learn_python\vba\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9F56850-10BB-4A8B-BA20-C11F6B7E3EB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B79F482-04C7-46C7-9AB8-17D31B03092C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1860" yWindow="1860" windowWidth="15300" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
   <si>
     <t>hello</t>
   </si>
@@ -450,7 +450,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
@@ -507,6 +507,11 @@
       </c>
       <c r="B7">
         <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
